--- a/biology/Médecine/Yves_Morin/Yves_Morin.xlsx
+++ b/biology/Médecine/Yves_Morin/Yves_Morin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Morin, né le 28 novembre 1929 à Québec, est un médecin cardiologue, professeur, écrivain et homme politique canadien.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a obtenu un baccalauréat ès arts en 1948 et un doctorat en médecine de l'Université Laval en 1953.
 Le Dr Morin a été professeur de médecine et doyen de la Faculté de médecine de l'Université Laval, directeur de l'Institut de cardiologie de Québec et directeur du service de cardiologie de l'Hôtel-Dieu de Québec.
-Il a été nommé au Sénat du Canada en 2001 sur recommandation du Premier ministre d'alors, Jean Chrétien. Il y a siégé jusqu'à l'âge de retraite obligatoire en 2004[1].
-En octobre 2011, Yves Morin publie son premier roman, « Les Cœurs tigrés »[2],[3], roman historique dont l’action se déroule de façon concomitante à deux moments distincts de l’histoire de l’Hôtel-Dieu de Québec, 1665 et 1965. « En 1965, un jeune cardiologue de l’Hôtel-Dieu doit faire face à une nouvelle maladie mortelle qui sévit uniquement à Québec. En 1665, Jean de Bonamour, premier médecin à pratiquer en Nouvelle-France, affronte des cas d’hydropisie sévère dont il ignore l’origine. En juxtaposant deux moments distincts de l’histoire et en s’inspirant de la controverse liée à la bière Dow, Yves Morin signe un roman historique efficace aux allures de thriller médical où l’on suit en parallèle les difficultés que connaissent les deux médecins à trois siècles d’intervalle »[4].
-« Les Cœurs tigrés » figure sur la liste des douze meilleurs livres de langue française de l’année 2011 établie par le journal Le Soleil[5],[6]. Le roman se mérite le Prix de création littéraire Bibliothèque de Québec-Salon international du livre de Québec 2012[7] et il est finaliste du Prix des abonnés du Réseau des bibliothèques de la Ville de Québec[8].
+Il a été nommé au Sénat du Canada en 2001 sur recommandation du Premier ministre d'alors, Jean Chrétien. Il y a siégé jusqu'à l'âge de retraite obligatoire en 2004.
+En octobre 2011, Yves Morin publie son premier roman, « Les Cœurs tigrés » roman historique dont l’action se déroule de façon concomitante à deux moments distincts de l’histoire de l’Hôtel-Dieu de Québec, 1665 et 1965. « En 1965, un jeune cardiologue de l’Hôtel-Dieu doit faire face à une nouvelle maladie mortelle qui sévit uniquement à Québec. En 1665, Jean de Bonamour, premier médecin à pratiquer en Nouvelle-France, affronte des cas d’hydropisie sévère dont il ignore l’origine. En juxtaposant deux moments distincts de l’histoire et en s’inspirant de la controverse liée à la bière Dow, Yves Morin signe un roman historique efficace aux allures de thriller médical où l’on suit en parallèle les difficultés que connaissent les deux médecins à trois siècles d’intervalle ».
+« Les Cœurs tigrés » figure sur la liste des douze meilleurs livres de langue française de l’année 2011 établie par le journal Le Soleil,. Le roman se mérite le Prix de création littéraire Bibliothèque de Québec-Salon international du livre de Québec 2012 et il est finaliste du Prix des abonnés du Réseau des bibliothèques de la Ville de Québec.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1991 - Officier de l'Ordre du Canada
 1994 - Officier de l'Ordre national du Québec
 1997 - Médaille Gloire de l'Escolle
-Chevalier de l'Ordre national du Mérite (France)[9],[10]
+Chevalier de l'Ordre national du Mérite (France),
 Fellow du Collège royal des médecins et chirurgiens du Canada
 Fellow de l'American College of Cardiology
 Fellow de l'American College of Medecine</t>
@@ -584,10 +600,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Roman
-Yves Morin, Les Cœurs tigrés, Québec, Septentrion, coll. « Hamac classique », 2011, 452 p.
-Ouvrages/Articles scientifiques
-Le Dr Morin a publié plusieurs livres et articles dans le domaine de la cardiologie (la liste partielle ci-après est tirée de sa Fiche parlementaire alors qu'il était sénateur :
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Morin, Les Cœurs tigrés, Québec, Septentrion, coll. « Hamac classique », 2011, 452 p.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yves_Morin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Morin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages/Articles scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Dr Morin a publié plusieurs livres et articles dans le domaine de la cardiologie (la liste partielle ci-après est tirée de sa Fiche parlementaire alors qu'il était sénateur :
 Livres
 « Le traitement thrombolytique de l'infarctus du myocarde », Québec : Ministère de la santé et des services sociaux, 1995, 31 p.
 « Thésaurus cardiovasculaire », Morin, Yves et Marcel Cliche, Québec : Presses de l'Université Laval, 1970, 295 p.
